--- a/ig/sd-extension-pays-de-recrutement/all-profiles.xlsx
+++ b/ig/sd-extension-pays-de-recrutement/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T16:33:02+00:00</t>
+    <t>2023-07-26T16:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,28 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout du domaine thérapeutique concerné par l'essai</t>
   </si>
   <si>
+    <t>eclaire-region</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-region</t>
+  </si>
+  <si>
+    <t>ECLAIRERegion</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE qui indique le ou les pays de recrutement de l'essai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/valueset-jurisdiction.html</t>
+  </si>
+  <si>
     <t>eclaire-label</t>
   </si>
   <si>
@@ -295,13 +317,6 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/title-type</t>
   </si>
   <si>
@@ -610,6 +625,16 @@
   </si>
   <si>
     <t>Promoteur(s) secondaire(s) / Secondary Sponsor(s)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-region}
+</t>
+  </si>
+  <si>
+    <t>zone de recrutement  / A country, state or other area where the study is taking place rather than its precise geographic location or address</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-label</t>
@@ -1461,7 +1486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1964,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -1972,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
@@ -1988,7 +2013,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
@@ -2040,7 +2065,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
@@ -2428,7 +2453,7 @@
         <v>36</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>114</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127">
@@ -2444,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129">
@@ -2452,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130">
@@ -2468,7 +2493,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132">
@@ -2520,7 +2545,7 @@
         <v>20</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139">
@@ -2588,7 +2613,7 @@
         <v>36</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148">
@@ -2604,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150">
@@ -2612,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151">
@@ -2628,7 +2653,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153">
@@ -2680,7 +2705,7 @@
         <v>20</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160">
@@ -2708,7 +2733,7 @@
         <v>26</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164">
@@ -2716,7 +2741,7 @@
         <v>28</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165">
@@ -2724,7 +2749,7 @@
         <v>30</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>127</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166">
@@ -2740,6 +2765,166 @@
         <v>34</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B188" t="s" s="2">
         <v>35</v>
       </c>
     </row>
@@ -2750,7 +2935,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK118"/>
+  <dimension ref="A1:AK124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4047,14 +4232,14 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>38</v>
@@ -4069,14 +4254,12 @@
         <v>50</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>38</v>
@@ -4145,20 +4328,18 @@
         <v>71</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>44</v>
@@ -4173,22 +4354,24 @@
         <v>38</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>38</v>
@@ -4230,19 +4413,19 @@
         <v>38</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -4250,10 +4433,10 @@
         <v>71</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -4276,13 +4459,13 @@
         <v>38</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4309,13 +4492,11 @@
         <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Z15" s="2"/>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>38</v>
@@ -4333,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -4342,21 +4523,21 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4367,7 +4548,7 @@
         <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>38</v>
@@ -4379,13 +4560,13 @@
         <v>38</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4424,19 +4605,19 @@
         <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -4448,18 +4629,18 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4467,7 +4648,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>44</v>
@@ -4482,24 +4663,22 @@
         <v>38</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>38</v>
@@ -4541,10 +4720,10 @@
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>44</v>
@@ -4558,24 +4737,24 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>38</v>
@@ -4587,15 +4766,17 @@
         <v>38</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>38</v>
@@ -4620,55 +4801,57 @@
         <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Z18" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA18" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>49</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>38</v>
@@ -4693,7 +4876,7 @@
         <v>50</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>51</v>
@@ -4764,13 +4947,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4867,13 +5050,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4970,13 +5153,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -5016,7 +5199,7 @@
       </c>
       <c r="R22" s="2"/>
       <c r="S22" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>38</v>
@@ -5075,13 +5258,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -5104,7 +5287,7 @@
         <v>38</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>64</v>
@@ -5137,13 +5320,11 @@
         <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Z23" s="2"/>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>38</v>
@@ -5178,21 +5359,23 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="E24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>44</v>
@@ -5207,24 +5390,22 @@
         <v>38</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>38</v>
@@ -5266,30 +5447,30 @@
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5300,7 +5481,7 @@
         <v>39</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>38</v>
@@ -5312,13 +5493,13 @@
         <v>38</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -5369,7 +5550,7 @@
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -5378,21 +5559,21 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5403,7 +5584,7 @@
         <v>39</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
@@ -5415,13 +5596,13 @@
         <v>38</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -5460,19 +5641,19 @@
         <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -5484,18 +5665,18 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5503,7 +5684,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -5518,22 +5699,24 @@
         <v>38</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>38</v>
@@ -5575,10 +5758,10 @@
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>44</v>
@@ -5592,13 +5775,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5609,7 +5792,7 @@
         <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
@@ -5621,13 +5804,13 @@
         <v>38</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -5666,36 +5849,36 @@
         <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>57</v>
@@ -5741,7 +5924,7 @@
       </c>
       <c r="R29" s="2"/>
       <c r="S29" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>38</v>
@@ -5800,7 +5983,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>62</v>
@@ -5817,7 +6000,7 @@
         <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>38</v>
@@ -6863,7 +7046,7 @@
         <v>38</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>64</v>
@@ -6896,11 +7079,13 @@
         <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Z40" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AA40" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>38</v>
@@ -6935,7 +7120,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>29</v>
@@ -6970,7 +7155,7 @@
         <v>29</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -7038,7 +7223,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>43</v>
@@ -7141,7 +7326,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>49</v>
@@ -7244,7 +7429,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>57</v>
@@ -7290,7 +7475,7 @@
       </c>
       <c r="R44" s="2"/>
       <c r="S44" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>38</v>
@@ -7349,7 +7534,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>62</v>
@@ -7378,7 +7563,7 @@
         <v>38</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>64</v>
@@ -7411,13 +7596,11 @@
         <v>38</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Z45" s="2"/>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>38</v>
@@ -7452,17 +7635,17 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
@@ -7484,14 +7667,12 @@
         <v>41</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>38</v>
@@ -7540,7 +7721,7 @@
         <v>38</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
@@ -7549,7 +7730,7 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -7557,13 +7738,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7583,20 +7764,18 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>38</v>
@@ -7645,7 +7824,7 @@
         <v>38</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>39</v>
@@ -7662,13 +7841,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7679,7 +7858,7 @@
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
@@ -7688,16 +7867,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7736,42 +7915,42 @@
         <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7779,7 +7958,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
@@ -7788,22 +7967,22 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
@@ -7811,7 +7990,7 @@
       </c>
       <c r="R49" s="2"/>
       <c r="S49" t="s" s="2">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>38</v>
@@ -7853,30 +8032,30 @@
         <v>38</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7899,17 +8078,15 @@
         <v>38</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
         <v>38</v>
@@ -7934,13 +8111,13 @@
         <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>38</v>
@@ -7958,7 +8135,7 @@
         <v>38</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -7975,24 +8152,24 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>38</v>
@@ -8004,16 +8181,16 @@
         <v>38</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -8063,41 +8240,41 @@
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>38</v>
@@ -8106,19 +8283,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -8168,13 +8345,13 @@
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>38</v>
@@ -8185,24 +8362,24 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
@@ -8211,20 +8388,18 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>38</v>
@@ -8261,46 +8436,44 @@
         <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>38</v>
       </c>
@@ -8315,21 +8488,23 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>38</v>
@@ -8378,34 +8553,32 @@
         <v>38</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8426,15 +8599,17 @@
         <v>38</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>38</v>
@@ -8459,13 +8634,13 @@
         <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="AB55" t="s" s="2">
         <v>38</v>
@@ -8483,36 +8658,34 @@
         <v>38</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
@@ -8531,15 +8704,17 @@
         <v>38</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>38</v>
@@ -8588,43 +8763,41 @@
         <v>38</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>38</v>
@@ -8636,15 +8809,17 @@
         <v>38</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>38</v>
@@ -8693,7 +8868,7 @@
         <v>38</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -8702,27 +8877,25 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
@@ -8741,15 +8914,17 @@
         <v>38</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>38</v>
@@ -8786,19 +8961,19 @@
         <v>38</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -8815,16 +8990,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s" s="2">
         <v>38</v>
@@ -8834,7 +9009,7 @@
         <v>39</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>38</v>
@@ -8846,13 +9021,13 @@
         <v>38</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -8903,7 +9078,7 @@
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -8920,49 +9095,47 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="E60" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>38</v>
       </c>
@@ -8998,19 +9171,19 @@
         <v>38</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -9027,15 +9200,17 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="D61" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E61" t="s" s="2">
         <v>38</v>
       </c>
@@ -9044,7 +9219,7 @@
         <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>38</v>
@@ -9053,21 +9228,19 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>38</v>
       </c>
@@ -9103,19 +9276,19 @@
         <v>38</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
@@ -9127,21 +9300,21 @@
         <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s" s="2">
         <v>38</v>
@@ -9154,27 +9327,25 @@
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>38</v>
       </c>
@@ -9222,7 +9393,7 @@
         <v>38</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
@@ -9234,20 +9405,22 @@
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="D63" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E63" t="s" s="2">
         <v>38</v>
       </c>
@@ -9256,7 +9429,7 @@
         <v>39</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>38</v>
@@ -9268,13 +9441,13 @@
         <v>38</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -9325,34 +9498,36 @@
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="E64" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
@@ -9371,17 +9546,15 @@
         <v>38</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>38</v>
@@ -9418,19 +9591,19 @@
         <v>38</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>39</v>
@@ -9447,49 +9620,47 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="E65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
         <v>38</v>
       </c>
@@ -9498,7 +9669,7 @@
         <v>38</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>38</v>
@@ -9513,13 +9684,13 @@
         <v>38</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="AB65" t="s" s="2">
         <v>38</v>
@@ -9537,65 +9708,65 @@
         <v>38</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>38</v>
@@ -9620,54 +9791,54 @@
         <v>38</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9678,7 +9849,7 @@
         <v>39</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>38</v>
@@ -9687,22 +9858,20 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="Q67" t="s" s="2">
         <v>38</v>
@@ -9715,7 +9884,7 @@
         <v>38</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="V67" t="s" s="2">
         <v>38</v>
@@ -9739,25 +9908,25 @@
         <v>38</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>42</v>
@@ -9768,15 +9937,17 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="E68" t="s" s="2">
         <v>38</v>
       </c>
@@ -9788,27 +9959,27 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P68" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Q68" t="s" s="2">
         <v>38</v>
       </c>
@@ -9820,7 +9991,7 @@
         <v>38</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="V68" t="s" s="2">
         <v>38</v>
@@ -9856,13 +10027,13 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>42</v>
@@ -9873,13 +10044,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9899,20 +10070,18 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
         <v>38</v>
@@ -9961,7 +10130,7 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>251</v>
+        <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -9970,32 +10139,32 @@
         <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>252</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>38</v>
@@ -10004,19 +10173,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -10054,77 +10223,77 @@
         <v>38</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>259</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P71" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="Q71" t="s" s="2">
         <v>38</v>
@@ -10134,7 +10303,7 @@
         <v>38</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>38</v>
@@ -10149,13 +10318,13 @@
         <v>38</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>38</v>
@@ -10173,13 +10342,13 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>42</v>
@@ -10190,13 +10359,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10216,19 +10385,23 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="Q72" t="s" s="2">
         <v>38</v>
       </c>
@@ -10252,13 +10425,13 @@
         <v>38</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="AB72" t="s" s="2">
         <v>38</v>
@@ -10276,7 +10449,7 @@
         <v>38</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
@@ -10285,32 +10458,32 @@
         <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>38</v>
@@ -10319,21 +10492,23 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P73" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="Q73" t="s" s="2">
         <v>38</v>
       </c>
@@ -10345,7 +10520,7 @@
         <v>38</v>
       </c>
       <c r="U73" t="s" s="2">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="V73" t="s" s="2">
         <v>38</v>
@@ -10369,42 +10544,42 @@
         <v>38</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10412,7 +10587,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
@@ -10421,26 +10596,24 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
         <v>38</v>
       </c>
@@ -10449,10 +10622,10 @@
         <v>38</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="U74" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="V74" t="s" s="2">
         <v>38</v>
@@ -10464,13 +10637,13 @@
         <v>38</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>38</v>
@@ -10488,7 +10661,7 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -10505,13 +10678,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10531,23 +10704,21 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>38</v>
       </c>
@@ -10571,13 +10742,13 @@
         <v>38</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="AB75" t="s" s="2">
         <v>38</v>
@@ -10595,7 +10766,7 @@
         <v>38</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>39</v>
@@ -10607,18 +10778,18 @@
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>66</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10638,23 +10809,21 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>38</v>
       </c>
@@ -10666,7 +10835,7 @@
         <v>38</v>
       </c>
       <c r="U76" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="V76" t="s" s="2">
         <v>38</v>
@@ -10702,7 +10871,7 @@
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>39</v>
@@ -10714,20 +10883,22 @@
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>66</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="D77" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>38</v>
       </c>
@@ -10736,30 +10907,30 @@
         <v>39</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P77" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Q77" t="s" s="2">
         <v>38</v>
       </c>
@@ -10771,7 +10942,7 @@
         <v>38</v>
       </c>
       <c r="U77" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="V77" t="s" s="2">
         <v>38</v>
@@ -10807,13 +10978,13 @@
         <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>42</v>
@@ -10824,13 +10995,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10850,20 +11021,18 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>38</v>
@@ -10912,7 +11081,7 @@
         <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>251</v>
+        <v>48</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>39</v>
@@ -10921,32 +11090,32 @@
         <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>252</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>38</v>
@@ -10955,19 +11124,19 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
@@ -11005,42 +11174,42 @@
         <v>38</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>259</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11048,7 +11217,7 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>44</v>
@@ -11057,24 +11226,26 @@
         <v>38</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="P80" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="Q80" t="s" s="2">
         <v>38</v>
       </c>
@@ -11083,7 +11254,7 @@
         <v>38</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>38</v>
@@ -11098,13 +11269,13 @@
         <v>38</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="AB80" t="s" s="2">
         <v>38</v>
@@ -11122,7 +11293,7 @@
         <v>38</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
@@ -11139,13 +11310,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11156,7 +11327,7 @@
         <v>39</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>38</v>
@@ -11165,21 +11336,23 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="P81" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="Q81" t="s" s="2">
         <v>38</v>
       </c>
@@ -11203,13 +11376,13 @@
         <v>38</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="AB81" t="s" s="2">
         <v>38</v>
@@ -11227,41 +11400,41 @@
         <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>259</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
@@ -11270,22 +11443,22 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="P82" t="s" s="2">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="Q82" t="s" s="2">
         <v>38</v>
@@ -11298,7 +11471,7 @@
         <v>38</v>
       </c>
       <c r="U82" t="s" s="2">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="V82" t="s" s="2">
         <v>38</v>
@@ -11334,30 +11507,30 @@
         <v>38</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>259</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11365,7 +11538,7 @@
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>44</v>
@@ -11374,22 +11547,22 @@
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
@@ -11403,7 +11576,7 @@
         <v>38</v>
       </c>
       <c r="U83" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="V83" t="s" s="2">
         <v>38</v>
@@ -11415,13 +11588,13 @@
         <v>38</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>38</v>
@@ -11439,10 +11612,10 @@
         <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>44</v>
@@ -11456,13 +11629,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11482,19 +11655,19 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -11520,13 +11693,13 @@
         <v>38</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="AB84" t="s" s="2">
         <v>38</v>
@@ -11544,7 +11717,7 @@
         <v>38</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>39</v>
@@ -11556,18 +11729,18 @@
         <v>42</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>66</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11587,19 +11760,19 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -11625,13 +11798,13 @@
         <v>38</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>38</v>
@@ -11649,7 +11822,7 @@
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>39</v>
@@ -11661,18 +11834,18 @@
         <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>66</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11683,7 +11856,7 @@
         <v>39</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>38</v>
@@ -11692,19 +11865,19 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -11730,10 +11903,10 @@
         <v>38</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>38</v>
@@ -11754,13 +11927,13 @@
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>42</v>
@@ -11771,13 +11944,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11797,19 +11970,19 @@
         <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11835,10 +12008,10 @@
         <v>38</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>38</v>
@@ -11859,7 +12032,7 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
@@ -11871,22 +12044,22 @@
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>66</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
@@ -11902,21 +12075,23 @@
         <v>38</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>90</v>
+        <v>291</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="P88" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="Q88" t="s" s="2">
         <v>38</v>
       </c>
@@ -11940,13 +12115,13 @@
         <v>38</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>38</v>
@@ -11964,7 +12139,7 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
@@ -11976,18 +12151,18 @@
         <v>42</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>66</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11995,30 +12170,32 @@
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>318</v>
+        <v>155</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>38</v>
@@ -12043,13 +12220,13 @@
         <v>38</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>38</v>
@@ -12067,13 +12244,13 @@
         <v>38</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>42</v>
@@ -12084,13 +12261,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12110,18 +12287,20 @@
         <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
         <v>38</v>
@@ -12146,13 +12325,13 @@
         <v>38</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="AB90" t="s" s="2">
         <v>38</v>
@@ -12170,7 +12349,7 @@
         <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>39</v>
@@ -12179,32 +12358,32 @@
         <v>44</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>38</v>
@@ -12213,19 +12392,19 @@
         <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -12251,58 +12430,56 @@
         <v>38</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="AB91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="D92" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>38</v>
       </c>
@@ -12311,7 +12488,7 @@
         <v>39</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>38</v>
@@ -12320,18 +12497,20 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
         <v>38</v>
@@ -12356,10 +12535,10 @@
         <v>38</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>38</v>
@@ -12380,7 +12559,7 @@
         <v>38</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>55</v>
+        <v>312</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>39</v>
@@ -12392,18 +12571,18 @@
         <v>42</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12414,7 +12593,7 @@
         <v>39</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>38</v>
@@ -12423,19 +12602,19 @@
         <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12461,10 +12640,10 @@
         <v>38</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>38</v>
@@ -12485,13 +12664,13 @@
         <v>38</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>42</v>
@@ -12502,13 +12681,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12528,18 +12707,20 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>38</v>
@@ -12564,13 +12745,13 @@
         <v>38</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>38</v>
@@ -12588,7 +12769,7 @@
         <v>38</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>39</v>
@@ -12600,18 +12781,18 @@
         <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>336</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12631,20 +12812,18 @@
         <v>38</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>38</v>
@@ -12693,7 +12872,7 @@
         <v>38</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
@@ -12710,13 +12889,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12727,7 +12906,7 @@
         <v>39</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>38</v>
@@ -12736,20 +12915,18 @@
         <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>38</v>
@@ -12774,10 +12951,10 @@
         <v>38</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>345</v>
+        <v>38</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>38</v>
@@ -12798,34 +12975,34 @@
         <v>38</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
@@ -12841,19 +13018,19 @@
         <v>38</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>347</v>
+        <v>83</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12879,31 +13056,31 @@
         <v>38</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>349</v>
+        <v>38</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="AB97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
@@ -12915,20 +13092,22 @@
         <v>42</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="D98" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="E98" t="s" s="2">
         <v>38</v>
       </c>
@@ -12949,17 +13128,15 @@
         <v>38</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>38</v>
@@ -13008,41 +13185,41 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>351</v>
+        <v>55</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>357</v>
+        <v>38</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>38</v>
@@ -13051,19 +13228,19 @@
         <v>38</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
@@ -13113,41 +13290,41 @@
         <v>38</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>259</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>38</v>
@@ -13156,20 +13333,18 @@
         <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>104</v>
+        <v>340</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
         <v>38</v>
@@ -13218,30 +13393,30 @@
         <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>252</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13252,7 +13427,7 @@
         <v>39</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>38</v>
@@ -13261,19 +13436,19 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>63</v>
+        <v>346</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -13323,30 +13498,30 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>259</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13357,7 +13532,7 @@
         <v>39</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>38</v>
@@ -13366,19 +13541,19 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
@@ -13404,10 +13579,10 @@
         <v>38</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>38</v>
@@ -13428,30 +13603,30 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>259</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13471,19 +13646,19 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>374</v>
+        <v>75</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13509,13 +13684,13 @@
         <v>38</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>38</v>
+        <v>357</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>38</v>
+        <v>358</v>
       </c>
       <c r="AB103" t="s" s="2">
         <v>38</v>
@@ -13533,7 +13708,7 @@
         <v>38</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>39</v>
@@ -13545,18 +13720,18 @@
         <v>42</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>259</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13576,19 +13751,19 @@
         <v>38</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
@@ -13614,13 +13789,13 @@
         <v>38</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>381</v>
+        <v>38</v>
       </c>
       <c r="AB104" t="s" s="2">
         <v>38</v>
@@ -13638,7 +13813,7 @@
         <v>38</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>39</v>
@@ -13655,17 +13830,17 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" t="s" s="2">
@@ -13681,19 +13856,19 @@
         <v>38</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
@@ -13743,7 +13918,7 @@
         <v>38</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>39</v>
@@ -13755,29 +13930,29 @@
         <v>42</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>66</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>38</v>
+        <v>371</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>38</v>
@@ -13786,18 +13961,20 @@
         <v>38</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
         <v>38</v>
@@ -13846,30 +14023,30 @@
         <v>38</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>66</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13889,18 +14066,20 @@
         <v>38</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
         <v>38</v>
@@ -13949,7 +14128,7 @@
         <v>38</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>48</v>
+        <v>374</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>39</v>
@@ -13958,32 +14137,32 @@
         <v>44</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>38</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>38</v>
@@ -13992,19 +14171,19 @@
         <v>38</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -14042,46 +14221,46 @@
         <v>38</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>55</v>
+        <v>377</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>56</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" t="s" s="2">
@@ -14094,26 +14273,24 @@
         <v>38</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>50</v>
+        <v>382</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
         <v>38</v>
       </c>
@@ -14161,7 +14338,7 @@
         <v>38</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>39</v>
@@ -14173,18 +14350,18 @@
         <v>42</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>56</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14192,7 +14369,7 @@
       </c>
       <c r="F110" s="2"/>
       <c r="G110" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>44</v>
@@ -14204,19 +14381,19 @@
         <v>38</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
@@ -14242,13 +14419,13 @@
         <v>38</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>38</v>
+        <v>388</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="AB110" t="s" s="2">
         <v>38</v>
@@ -14266,10 +14443,10 @@
         <v>38</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>44</v>
@@ -14283,13 +14460,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14300,7 +14477,7 @@
         <v>39</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>38</v>
@@ -14312,16 +14489,16 @@
         <v>38</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>90</v>
+        <v>391</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>295</v>
+        <v>394</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
@@ -14371,13 +14548,13 @@
         <v>38</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>42</v>
@@ -14388,13 +14565,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14405,7 +14582,7 @@
         <v>39</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>38</v>
@@ -14417,17 +14594,15 @@
         <v>38</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
         <v>38</v>
@@ -14476,13 +14651,13 @@
         <v>38</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>42</v>
@@ -14493,13 +14668,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14510,7 +14685,7 @@
         <v>39</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>38</v>
@@ -14522,13 +14697,13 @@
         <v>38</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>408</v>
+        <v>46</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>409</v>
+        <v>47</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -14579,41 +14754,41 @@
         <v>38</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>407</v>
+        <v>48</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>38</v>
@@ -14625,15 +14800,17 @@
         <v>38</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
         <v>38</v>
@@ -14670,46 +14847,46 @@
         <v>38</v>
       </c>
       <c r="AC114" t="s" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE114" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" t="s" s="2">
@@ -14722,24 +14899,26 @@
         <v>38</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="L115" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P115" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="Q115" t="s" s="2">
         <v>38</v>
       </c>
@@ -14775,19 +14954,19 @@
         <v>38</v>
       </c>
       <c r="AC115" t="s" s="2">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AD115" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AE115" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>39</v>
@@ -14804,49 +14983,47 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
         <v>38</v>
       </c>
@@ -14894,30 +15071,30 @@
         <v>38</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14940,16 +15117,16 @@
         <v>38</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
@@ -14999,7 +15176,7 @@
         <v>38</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>39</v>
@@ -15016,13 +15193,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15045,16 +15222,16 @@
         <v>38</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
@@ -15080,13 +15257,13 @@
         <v>38</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>419</v>
+        <v>38</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>420</v>
+        <v>38</v>
       </c>
       <c r="AB118" t="s" s="2">
         <v>38</v>
@@ -15104,7 +15281,7 @@
         <v>38</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>39</v>
@@ -15116,6 +15293,634 @@
         <v>42</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Q122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R123" s="2"/>
+      <c r="S123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R124" s="2"/>
+      <c r="S124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK124" t="s" s="2">
         <v>66</v>
       </c>
     </row>
